--- a/tools/Data/Excels/实体配置.xlsx
+++ b/tools/Data/Excels/实体配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>ResMonster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Enemy</t>
+  </si>
+  <si>
+    <t>50001</t>
   </si>
   <si>
     <t>test_ai</t>
@@ -93,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,9 +117,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,122 +200,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,24 +263,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,13 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,139 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +454,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,23 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,39 +554,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,153 +562,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,13 +1065,14 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
     <col min="6" max="7" width="19.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -1084,7 +1091,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1107,7 +1114,7 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1130,7 +1137,7 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1153,7 +1160,7 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1176,9 +1183,11 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>

--- a/tools/Data/Excels/实体配置.xlsx
+++ b/tools/Data/Excels/实体配置.xlsx
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,6 +117,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -133,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -147,8 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,15 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,71 +210,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,24 +263,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,6 +311,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,6 +371,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,133 +395,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,54 +454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,8 +475,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +521,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>

--- a/tools/Data/Excels/实体配置.xlsx
+++ b/tools/Data/Excels/实体配置.xlsx
@@ -85,7 +85,7 @@
     <t>Enemy</t>
   </si>
   <si>
-    <t>50001</t>
+    <t>1</t>
   </si>
   <si>
     <t>test_ai</t>
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -232,23 +232,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
